--- a/config/DriveParameters.xlsx
+++ b/config/DriveParameters.xlsx
@@ -78,7 +78,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1798" uniqueCount="1123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1808" uniqueCount="1128">
   <si>
     <t>Tên sản phẩm</t>
   </si>
@@ -3655,6 +3655,21 @@
   </si>
   <si>
     <t>xxxxxxx</t>
+  </si>
+  <si>
+    <t>M56 1200/40W</t>
+  </si>
+  <si>
+    <t>00065095</t>
+  </si>
+  <si>
+    <t>M56 600/20W</t>
+  </si>
+  <si>
+    <t>00065106</t>
+  </si>
+  <si>
+    <t>≤ 170</t>
   </si>
 </sst>
 </file>
@@ -4364,7 +4379,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="133">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -4495,10 +4510,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -4658,13 +4669,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>53837</xdr:colOff>
-      <xdr:row>65</xdr:row>
+      <xdr:row>66</xdr:row>
       <xdr:rowOff>41413</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
       <xdr:colOff>614371</xdr:colOff>
-      <xdr:row>83</xdr:row>
+      <xdr:row>84</xdr:row>
       <xdr:rowOff>107674</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
@@ -4680,7 +4691,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="53837" y="12526065"/>
+          <a:off x="53837" y="12708283"/>
           <a:ext cx="11057360" cy="3346174"/>
           <a:chOff x="53837" y="11984935"/>
           <a:chExt cx="11414893" cy="3346174"/>
@@ -4990,13 +5001,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>501100</xdr:colOff>
-      <xdr:row>81</xdr:row>
+      <xdr:row>82</xdr:row>
       <xdr:rowOff>33132</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>107675</xdr:colOff>
-      <xdr:row>82</xdr:row>
+      <xdr:row>83</xdr:row>
       <xdr:rowOff>144947</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -9287,12 +9298,12 @@
   <sheetPr>
     <tabColor rgb="FF0070C0"/>
   </sheetPr>
-  <dimension ref="A1:N87"/>
+  <dimension ref="A1:N88"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A49" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="K54" sqref="K54"/>
+      <selection pane="bottomLeft" activeCell="O54" sqref="O54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -9309,63 +9320,63 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="39.75" customHeight="1">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="87" t="s">
         <v>54</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
-      <c r="J1" s="91"/>
-      <c r="K1" s="91"/>
-      <c r="L1" s="91"/>
-      <c r="M1" s="91"/>
-      <c r="N1" s="91"/>
+      <c r="B1" s="87"/>
+      <c r="C1" s="87"/>
+      <c r="D1" s="87"/>
+      <c r="E1" s="87"/>
+      <c r="F1" s="87"/>
+      <c r="G1" s="87"/>
+      <c r="H1" s="87"/>
+      <c r="I1" s="87"/>
+      <c r="J1" s="87"/>
+      <c r="K1" s="87"/>
+      <c r="L1" s="87"/>
+      <c r="M1" s="87"/>
+      <c r="N1" s="87"/>
     </row>
     <row r="2" spans="1:14" ht="39.75" customHeight="1">
-      <c r="A2" s="92" t="s">
+      <c r="A2" s="88" t="s">
         <v>27</v>
       </c>
-      <c r="B2" s="93" t="s">
+      <c r="B2" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="98" t="s">
+      <c r="C2" s="94" t="s">
         <v>55</v>
       </c>
-      <c r="D2" s="100" t="s">
+      <c r="D2" s="96" t="s">
         <v>88</v>
       </c>
-      <c r="E2" s="100"/>
+      <c r="E2" s="96"/>
       <c r="F2" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="G2" s="94" t="s">
+      <c r="G2" s="90" t="s">
         <v>51</v>
       </c>
-      <c r="H2" s="95"/>
-      <c r="I2" s="96" t="s">
+      <c r="H2" s="91"/>
+      <c r="I2" s="92" t="s">
         <v>1109</v>
       </c>
-      <c r="J2" s="94" t="s">
+      <c r="J2" s="90" t="s">
         <v>99</v>
       </c>
-      <c r="K2" s="95"/>
-      <c r="L2" s="94" t="s">
+      <c r="K2" s="91"/>
+      <c r="L2" s="90" t="s">
         <v>100</v>
       </c>
-      <c r="M2" s="95"/>
+      <c r="M2" s="91"/>
       <c r="N2" s="7" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:14">
-      <c r="A3" s="92"/>
-      <c r="B3" s="93"/>
-      <c r="C3" s="99"/>
+      <c r="A3" s="88"/>
+      <c r="B3" s="89"/>
+      <c r="C3" s="95"/>
       <c r="D3" s="8" t="s">
         <v>1</v>
       </c>
@@ -9381,7 +9392,7 @@
       <c r="H3" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="97"/>
+      <c r="I3" s="93"/>
       <c r="J3" s="7" t="s">
         <v>1</v>
       </c>
@@ -11598,65 +11609,119 @@
       </c>
     </row>
     <row r="55" spans="1:14">
-      <c r="A55" s="82"/>
-      <c r="B55" s="84"/>
-      <c r="C55" s="85"/>
-      <c r="D55" s="84"/>
-      <c r="E55" s="86"/>
-      <c r="F55" s="13"/>
-      <c r="G55" s="87"/>
-      <c r="H55" s="86"/>
-      <c r="I55" s="13"/>
-      <c r="J55" s="86"/>
-      <c r="K55" s="86"/>
-      <c r="L55" s="86"/>
-      <c r="M55" s="86"/>
-      <c r="N55" s="13"/>
+      <c r="A55" s="82">
+        <v>52</v>
+      </c>
+      <c r="B55" s="6" t="s">
+        <v>1123</v>
+      </c>
+      <c r="C55" s="83" t="s">
+        <v>1124</v>
+      </c>
+      <c r="D55" s="11">
+        <v>218</v>
+      </c>
+      <c r="E55" s="12">
+        <v>222</v>
+      </c>
+      <c r="F55" s="13" t="s">
+        <v>66</v>
+      </c>
+      <c r="G55" s="67">
+        <v>36</v>
+      </c>
+      <c r="H55" s="15">
+        <v>44</v>
+      </c>
+      <c r="I55" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="J55" s="15">
+        <v>115</v>
+      </c>
+      <c r="K55" s="15">
+        <v>140</v>
+      </c>
+      <c r="L55" s="15">
+        <v>280</v>
+      </c>
+      <c r="M55" s="15">
+        <v>315</v>
+      </c>
+      <c r="N55" s="13" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="56" spans="1:14">
-      <c r="A56" s="42" t="s">
+      <c r="A56" s="82">
+        <v>53</v>
+      </c>
+      <c r="B56" s="6" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C56" s="83" t="s">
+        <v>1126</v>
+      </c>
+      <c r="D56" s="11">
+        <v>218</v>
+      </c>
+      <c r="E56" s="12">
+        <v>222</v>
+      </c>
+      <c r="F56" s="13" t="s">
+        <v>1127</v>
+      </c>
+      <c r="G56" s="67">
+        <v>18</v>
+      </c>
+      <c r="H56" s="15">
+        <v>22</v>
+      </c>
+      <c r="I56" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="J56" s="15">
+        <v>120</v>
+      </c>
+      <c r="K56" s="15">
+        <v>140</v>
+      </c>
+      <c r="L56" s="15">
+        <v>137</v>
+      </c>
+      <c r="M56" s="15">
+        <v>152</v>
+      </c>
+      <c r="N56" s="13" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14">
+      <c r="A57" s="42" t="s">
         <v>95</v>
       </c>
-      <c r="B56" s="22" t="s">
+      <c r="B57" s="22" t="s">
         <v>151</v>
       </c>
-      <c r="C56" s="23"/>
-      <c r="D56" s="23"/>
-      <c r="E56" s="23"/>
-      <c r="F56" s="23"/>
-      <c r="G56" s="23"/>
-      <c r="H56" s="23"/>
-      <c r="I56" s="23"/>
-      <c r="J56" s="23"/>
-      <c r="K56" s="23"/>
-      <c r="L56" s="23"/>
-      <c r="M56" s="23"/>
-      <c r="N56" s="24"/>
-    </row>
-    <row r="57" spans="1:14">
-      <c r="A57" s="88" t="s">
+      <c r="C57" s="23"/>
+      <c r="D57" s="23"/>
+      <c r="E57" s="23"/>
+      <c r="F57" s="23"/>
+      <c r="G57" s="23"/>
+      <c r="H57" s="23"/>
+      <c r="I57" s="23"/>
+      <c r="J57" s="23"/>
+      <c r="K57" s="23"/>
+      <c r="L57" s="23"/>
+      <c r="M57" s="23"/>
+      <c r="N57" s="24"/>
+    </row>
+    <row r="58" spans="1:14">
+      <c r="A58" s="84" t="s">
         <v>1106</v>
       </c>
-      <c r="B57" s="25" t="s">
+      <c r="B58" s="25" t="s">
         <v>150</v>
-      </c>
-      <c r="C57" s="26"/>
-      <c r="D57" s="26"/>
-      <c r="E57" s="26"/>
-      <c r="F57" s="26"/>
-      <c r="G57" s="26"/>
-      <c r="H57" s="26"/>
-      <c r="I57" s="26"/>
-      <c r="J57" s="26"/>
-      <c r="K57" s="26"/>
-      <c r="L57" s="26"/>
-      <c r="M57" s="26"/>
-      <c r="N57" s="27"/>
-    </row>
-    <row r="58" spans="1:14">
-      <c r="A58" s="88"/>
-      <c r="B58" s="25" t="s">
-        <v>152</v>
       </c>
       <c r="C58" s="26"/>
       <c r="D58" s="26"/>
@@ -11672,88 +11737,88 @@
       <c r="N58" s="27"/>
     </row>
     <row r="59" spans="1:14">
-      <c r="A59" s="88"/>
-      <c r="B59" s="28" t="s">
+      <c r="A59" s="84"/>
+      <c r="B59" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="C59" s="26"/>
+      <c r="D59" s="26"/>
+      <c r="E59" s="26"/>
+      <c r="F59" s="26"/>
+      <c r="G59" s="26"/>
+      <c r="H59" s="26"/>
+      <c r="I59" s="26"/>
+      <c r="J59" s="26"/>
+      <c r="K59" s="26"/>
+      <c r="L59" s="26"/>
+      <c r="M59" s="26"/>
+      <c r="N59" s="27"/>
+    </row>
+    <row r="60" spans="1:14">
+      <c r="A60" s="84"/>
+      <c r="B60" s="28" t="s">
         <v>1110</v>
       </c>
-      <c r="C59" s="29"/>
-      <c r="D59" s="29"/>
-      <c r="E59" s="29"/>
-      <c r="F59" s="29"/>
-      <c r="G59" s="29"/>
-      <c r="H59" s="29"/>
-      <c r="I59" s="29"/>
-      <c r="J59" s="29"/>
-      <c r="K59" s="29"/>
-      <c r="L59" s="29"/>
-      <c r="M59" s="29"/>
-      <c r="N59" s="30"/>
-    </row>
-    <row r="60" spans="1:14">
-      <c r="A60" s="31"/>
-      <c r="B60" s="26" t="s">
+      <c r="C60" s="29"/>
+      <c r="D60" s="29"/>
+      <c r="E60" s="29"/>
+      <c r="F60" s="29"/>
+      <c r="G60" s="29"/>
+      <c r="H60" s="29"/>
+      <c r="I60" s="29"/>
+      <c r="J60" s="29"/>
+      <c r="K60" s="29"/>
+      <c r="L60" s="29"/>
+      <c r="M60" s="29"/>
+      <c r="N60" s="30"/>
+    </row>
+    <row r="61" spans="1:14">
+      <c r="A61" s="31"/>
+      <c r="B61" s="26" t="s">
         <v>1111</v>
       </c>
-      <c r="C60" s="26"/>
-      <c r="D60" s="26"/>
-      <c r="E60" s="26"/>
-      <c r="F60" s="26"/>
-      <c r="G60" s="26"/>
-      <c r="H60" s="26"/>
-      <c r="I60" s="26"/>
-      <c r="J60" s="26"/>
-      <c r="K60" s="26"/>
-      <c r="L60" s="26"/>
-      <c r="M60" s="26"/>
-      <c r="N60" s="26"/>
-    </row>
-    <row r="61" spans="1:14">
-      <c r="A61" s="21"/>
+      <c r="C61" s="26"/>
+      <c r="D61" s="26"/>
+      <c r="E61" s="26"/>
+      <c r="F61" s="26"/>
+      <c r="G61" s="26"/>
+      <c r="H61" s="26"/>
+      <c r="I61" s="26"/>
+      <c r="J61" s="26"/>
+      <c r="K61" s="26"/>
+      <c r="L61" s="26"/>
+      <c r="M61" s="26"/>
+      <c r="N61" s="26"/>
     </row>
     <row r="62" spans="1:14">
-      <c r="A62" s="41" t="s">
+      <c r="A62" s="21"/>
+    </row>
+    <row r="63" spans="1:14">
+      <c r="A63" s="41" t="s">
         <v>96</v>
       </c>
-      <c r="B62" s="32" t="s">
+      <c r="B63" s="32" t="s">
         <v>101</v>
       </c>
-      <c r="C62" s="33"/>
-      <c r="D62" s="33"/>
-      <c r="E62" s="33"/>
-      <c r="F62" s="33"/>
-      <c r="G62" s="33"/>
-      <c r="H62" s="33"/>
-      <c r="I62" s="33"/>
-      <c r="J62" s="33"/>
-      <c r="K62" s="33"/>
-      <c r="L62" s="33"/>
-      <c r="M62" s="33"/>
-      <c r="N62" s="34"/>
-    </row>
-    <row r="63" spans="1:14">
-      <c r="A63" s="89" t="s">
+      <c r="C63" s="33"/>
+      <c r="D63" s="33"/>
+      <c r="E63" s="33"/>
+      <c r="F63" s="33"/>
+      <c r="G63" s="33"/>
+      <c r="H63" s="33"/>
+      <c r="I63" s="33"/>
+      <c r="J63" s="33"/>
+      <c r="K63" s="33"/>
+      <c r="L63" s="33"/>
+      <c r="M63" s="33"/>
+      <c r="N63" s="34"/>
+    </row>
+    <row r="64" spans="1:14">
+      <c r="A64" s="85" t="s">
         <v>97</v>
       </c>
-      <c r="B63" s="35" t="s">
+      <c r="B64" s="35" t="s">
         <v>98</v>
-      </c>
-      <c r="C63" s="36"/>
-      <c r="D63" s="36"/>
-      <c r="E63" s="36"/>
-      <c r="F63" s="36"/>
-      <c r="G63" s="36"/>
-      <c r="H63" s="36"/>
-      <c r="I63" s="36"/>
-      <c r="J63" s="36"/>
-      <c r="K63" s="36"/>
-      <c r="L63" s="36"/>
-      <c r="M63" s="36"/>
-      <c r="N63" s="37"/>
-    </row>
-    <row r="64" spans="1:14">
-      <c r="A64" s="89"/>
-      <c r="B64" s="35" t="s">
-        <v>149</v>
       </c>
       <c r="C64" s="36"/>
       <c r="D64" s="36"/>
@@ -11769,49 +11834,67 @@
       <c r="N64" s="37"/>
     </row>
     <row r="65" spans="1:14">
-      <c r="A65" s="89"/>
-      <c r="B65" s="38" t="s">
+      <c r="A65" s="85"/>
+      <c r="B65" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="C65" s="36"/>
+      <c r="D65" s="36"/>
+      <c r="E65" s="36"/>
+      <c r="F65" s="36"/>
+      <c r="G65" s="36"/>
+      <c r="H65" s="36"/>
+      <c r="I65" s="36"/>
+      <c r="J65" s="36"/>
+      <c r="K65" s="36"/>
+      <c r="L65" s="36"/>
+      <c r="M65" s="36"/>
+      <c r="N65" s="37"/>
+    </row>
+    <row r="66" spans="1:14">
+      <c r="A66" s="85"/>
+      <c r="B66" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="C65" s="39"/>
-      <c r="D65" s="39"/>
-      <c r="E65" s="39"/>
-      <c r="F65" s="39"/>
-      <c r="G65" s="39"/>
-      <c r="H65" s="39"/>
-      <c r="I65" s="39"/>
-      <c r="J65" s="39"/>
-      <c r="K65" s="39"/>
-      <c r="L65" s="39"/>
-      <c r="M65" s="39"/>
-      <c r="N65" s="40"/>
-    </row>
-    <row r="86" spans="9:14">
-      <c r="I86" s="90" t="s">
+      <c r="C66" s="39"/>
+      <c r="D66" s="39"/>
+      <c r="E66" s="39"/>
+      <c r="F66" s="39"/>
+      <c r="G66" s="39"/>
+      <c r="H66" s="39"/>
+      <c r="I66" s="39"/>
+      <c r="J66" s="39"/>
+      <c r="K66" s="39"/>
+      <c r="L66" s="39"/>
+      <c r="M66" s="39"/>
+      <c r="N66" s="40"/>
+    </row>
+    <row r="87" spans="9:14">
+      <c r="I87" s="86" t="s">
         <v>153</v>
       </c>
-      <c r="J86" s="90"/>
-      <c r="K86" s="90"/>
-      <c r="L86" s="90"/>
-      <c r="M86" s="90"/>
-      <c r="N86" s="90"/>
-    </row>
-    <row r="87" spans="9:14">
-      <c r="I87" s="90" t="s">
+      <c r="J87" s="86"/>
+      <c r="K87" s="86"/>
+      <c r="L87" s="86"/>
+      <c r="M87" s="86"/>
+      <c r="N87" s="86"/>
+    </row>
+    <row r="88" spans="9:14">
+      <c r="I88" s="86" t="s">
         <v>154</v>
       </c>
-      <c r="J87" s="90"/>
-      <c r="K87" s="90"/>
-      <c r="L87" s="90"/>
-      <c r="M87" s="90"/>
-      <c r="N87" s="90"/>
+      <c r="J88" s="86"/>
+      <c r="K88" s="86"/>
+      <c r="L88" s="86"/>
+      <c r="M88" s="86"/>
+      <c r="N88" s="86"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A57:A59"/>
-    <mergeCell ref="A63:A65"/>
-    <mergeCell ref="I86:N86"/>
+    <mergeCell ref="A58:A60"/>
+    <mergeCell ref="A64:A66"/>
     <mergeCell ref="I87:N87"/>
+    <mergeCell ref="I88:N88"/>
     <mergeCell ref="A1:N1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
@@ -11855,16 +11938,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="48" customHeight="1">
-      <c r="A1" s="114" t="s">
+      <c r="A1" s="110" t="s">
         <v>147</v>
       </c>
-      <c r="B1" s="115"/>
-      <c r="C1" s="115"/>
-      <c r="D1" s="115"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
-      <c r="H1" s="115"/>
+      <c r="B1" s="111"/>
+      <c r="C1" s="111"/>
+      <c r="D1" s="111"/>
+      <c r="E1" s="111"/>
+      <c r="F1" s="111"/>
+      <c r="G1" s="111"/>
+      <c r="H1" s="111"/>
     </row>
     <row r="2" spans="1:8" ht="27" customHeight="1">
       <c r="A2" s="43" t="s">
@@ -11903,16 +11986,16 @@
       <c r="D3" s="76" t="s">
         <v>1108</v>
       </c>
-      <c r="E3" s="116" t="s">
+      <c r="E3" s="112" t="s">
         <v>112</v>
       </c>
-      <c r="F3" s="117" t="s">
+      <c r="F3" s="113" t="s">
         <v>113</v>
       </c>
-      <c r="G3" s="119" t="s">
+      <c r="G3" s="115" t="s">
         <v>114</v>
       </c>
-      <c r="H3" s="122" t="s">
+      <c r="H3" s="118" t="s">
         <v>115</v>
       </c>
     </row>
@@ -11927,10 +12010,10 @@
       <c r="D4" s="77" t="s">
         <v>111</v>
       </c>
-      <c r="E4" s="116"/>
-      <c r="F4" s="118"/>
-      <c r="G4" s="120"/>
-      <c r="H4" s="123"/>
+      <c r="E4" s="112"/>
+      <c r="F4" s="114"/>
+      <c r="G4" s="116"/>
+      <c r="H4" s="119"/>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="71">
@@ -11943,10 +12026,10 @@
       <c r="D5" s="77" t="s">
         <v>111</v>
       </c>
-      <c r="E5" s="116"/>
-      <c r="F5" s="118"/>
-      <c r="G5" s="120"/>
-      <c r="H5" s="123"/>
+      <c r="E5" s="112"/>
+      <c r="F5" s="114"/>
+      <c r="G5" s="116"/>
+      <c r="H5" s="119"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="71">
@@ -11959,10 +12042,10 @@
       <c r="D6" s="77" t="s">
         <v>119</v>
       </c>
-      <c r="E6" s="116"/>
-      <c r="F6" s="118"/>
-      <c r="G6" s="120"/>
-      <c r="H6" s="123"/>
+      <c r="E6" s="112"/>
+      <c r="F6" s="114"/>
+      <c r="G6" s="116"/>
+      <c r="H6" s="119"/>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="71">
@@ -11975,10 +12058,10 @@
       <c r="D7" s="77" t="s">
         <v>119</v>
       </c>
-      <c r="E7" s="116"/>
-      <c r="F7" s="118"/>
-      <c r="G7" s="120"/>
-      <c r="H7" s="123"/>
+      <c r="E7" s="112"/>
+      <c r="F7" s="114"/>
+      <c r="G7" s="116"/>
+      <c r="H7" s="119"/>
     </row>
     <row r="8" spans="1:8" ht="15" thickBot="1">
       <c r="A8" s="73">
@@ -11991,10 +12074,10 @@
       <c r="D8" s="78" t="s">
         <v>111</v>
       </c>
-      <c r="E8" s="116"/>
-      <c r="F8" s="118"/>
-      <c r="G8" s="121"/>
-      <c r="H8" s="124"/>
+      <c r="E8" s="112"/>
+      <c r="F8" s="114"/>
+      <c r="G8" s="117"/>
+      <c r="H8" s="120"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="69">
@@ -12007,16 +12090,16 @@
       <c r="D9" s="76" t="s">
         <v>1107</v>
       </c>
-      <c r="E9" s="102" t="s">
+      <c r="E9" s="98" t="s">
         <v>123</v>
       </c>
-      <c r="F9" s="104" t="s">
+      <c r="F9" s="100" t="s">
         <v>124</v>
       </c>
-      <c r="G9" s="126" t="s">
+      <c r="G9" s="122" t="s">
         <v>125</v>
       </c>
-      <c r="H9" s="129" t="s">
+      <c r="H9" s="125" t="s">
         <v>126</v>
       </c>
     </row>
@@ -12031,10 +12114,10 @@
       <c r="D10" s="77" t="s">
         <v>119</v>
       </c>
-      <c r="E10" s="103"/>
-      <c r="F10" s="105"/>
-      <c r="G10" s="127"/>
-      <c r="H10" s="130"/>
+      <c r="E10" s="99"/>
+      <c r="F10" s="101"/>
+      <c r="G10" s="123"/>
+      <c r="H10" s="126"/>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="71">
@@ -12047,10 +12130,10 @@
       <c r="D11" s="77" t="s">
         <v>119</v>
       </c>
-      <c r="E11" s="103"/>
-      <c r="F11" s="105"/>
-      <c r="G11" s="127"/>
-      <c r="H11" s="130"/>
+      <c r="E11" s="99"/>
+      <c r="F11" s="101"/>
+      <c r="G11" s="123"/>
+      <c r="H11" s="126"/>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="71">
@@ -12063,10 +12146,10 @@
       <c r="D12" s="77" t="s">
         <v>119</v>
       </c>
-      <c r="E12" s="103"/>
-      <c r="F12" s="105"/>
-      <c r="G12" s="127"/>
-      <c r="H12" s="130"/>
+      <c r="E12" s="99"/>
+      <c r="F12" s="101"/>
+      <c r="G12" s="123"/>
+      <c r="H12" s="126"/>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="71">
@@ -12082,9 +12165,9 @@
       <c r="E13" s="75" t="s">
         <v>131</v>
       </c>
-      <c r="F13" s="105"/>
-      <c r="G13" s="127"/>
-      <c r="H13" s="130"/>
+      <c r="F13" s="101"/>
+      <c r="G13" s="123"/>
+      <c r="H13" s="126"/>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="71">
@@ -12097,12 +12180,12 @@
       <c r="D14" s="77" t="s">
         <v>119</v>
       </c>
-      <c r="E14" s="103" t="s">
+      <c r="E14" s="99" t="s">
         <v>133</v>
       </c>
-      <c r="F14" s="105"/>
-      <c r="G14" s="127"/>
-      <c r="H14" s="130"/>
+      <c r="F14" s="101"/>
+      <c r="G14" s="123"/>
+      <c r="H14" s="126"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="71">
@@ -12115,10 +12198,10 @@
       <c r="D15" s="77" t="s">
         <v>119</v>
       </c>
-      <c r="E15" s="103"/>
-      <c r="F15" s="105"/>
-      <c r="G15" s="127"/>
-      <c r="H15" s="130"/>
+      <c r="E15" s="99"/>
+      <c r="F15" s="101"/>
+      <c r="G15" s="123"/>
+      <c r="H15" s="126"/>
     </row>
     <row r="16" spans="1:8" ht="15" thickBot="1">
       <c r="A16" s="73">
@@ -12131,10 +12214,10 @@
       <c r="D16" s="78" t="s">
         <v>119</v>
       </c>
-      <c r="E16" s="113"/>
-      <c r="F16" s="125"/>
-      <c r="G16" s="128"/>
-      <c r="H16" s="131"/>
+      <c r="E16" s="109"/>
+      <c r="F16" s="121"/>
+      <c r="G16" s="124"/>
+      <c r="H16" s="127"/>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="69">
@@ -12147,16 +12230,16 @@
       <c r="D17" s="76" t="s">
         <v>119</v>
       </c>
-      <c r="E17" s="102" t="s">
+      <c r="E17" s="98" t="s">
         <v>136</v>
       </c>
-      <c r="F17" s="104" t="s">
+      <c r="F17" s="100" t="s">
         <v>137</v>
       </c>
-      <c r="G17" s="107" t="s">
+      <c r="G17" s="103" t="s">
         <v>138</v>
       </c>
-      <c r="H17" s="110" t="s">
+      <c r="H17" s="106" t="s">
         <v>139</v>
       </c>
     </row>
@@ -12171,10 +12254,10 @@
       <c r="D18" s="77" t="s">
         <v>119</v>
       </c>
-      <c r="E18" s="103"/>
-      <c r="F18" s="105"/>
-      <c r="G18" s="108"/>
-      <c r="H18" s="111"/>
+      <c r="E18" s="99"/>
+      <c r="F18" s="101"/>
+      <c r="G18" s="104"/>
+      <c r="H18" s="107"/>
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="71">
@@ -12187,12 +12270,12 @@
       <c r="D19" s="77" t="s">
         <v>119</v>
       </c>
-      <c r="E19" s="103" t="s">
+      <c r="E19" s="99" t="s">
         <v>141</v>
       </c>
-      <c r="F19" s="105"/>
-      <c r="G19" s="108"/>
-      <c r="H19" s="111"/>
+      <c r="F19" s="101"/>
+      <c r="G19" s="104"/>
+      <c r="H19" s="107"/>
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="71">
@@ -12205,10 +12288,10 @@
       <c r="D20" s="77" t="s">
         <v>119</v>
       </c>
-      <c r="E20" s="103"/>
-      <c r="F20" s="105"/>
-      <c r="G20" s="108"/>
-      <c r="H20" s="111"/>
+      <c r="E20" s="99"/>
+      <c r="F20" s="101"/>
+      <c r="G20" s="104"/>
+      <c r="H20" s="107"/>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="71">
@@ -12221,10 +12304,10 @@
       <c r="D21" s="77" t="s">
         <v>119</v>
       </c>
-      <c r="E21" s="103"/>
-      <c r="F21" s="105"/>
-      <c r="G21" s="108"/>
-      <c r="H21" s="111"/>
+      <c r="E21" s="99"/>
+      <c r="F21" s="101"/>
+      <c r="G21" s="104"/>
+      <c r="H21" s="107"/>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="71">
@@ -12237,10 +12320,10 @@
       <c r="D22" s="77" t="s">
         <v>119</v>
       </c>
-      <c r="E22" s="103"/>
-      <c r="F22" s="105"/>
-      <c r="G22" s="108"/>
-      <c r="H22" s="111"/>
+      <c r="E22" s="99"/>
+      <c r="F22" s="101"/>
+      <c r="G22" s="104"/>
+      <c r="H22" s="107"/>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="71">
@@ -12253,10 +12336,10 @@
       <c r="D23" s="77" t="s">
         <v>119</v>
       </c>
-      <c r="E23" s="103"/>
-      <c r="F23" s="105"/>
-      <c r="G23" s="108"/>
-      <c r="H23" s="111"/>
+      <c r="E23" s="99"/>
+      <c r="F23" s="101"/>
+      <c r="G23" s="104"/>
+      <c r="H23" s="107"/>
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="71">
@@ -12269,12 +12352,12 @@
       <c r="D24" s="77" t="s">
         <v>119</v>
       </c>
-      <c r="E24" s="103" t="s">
+      <c r="E24" s="99" t="s">
         <v>145</v>
       </c>
-      <c r="F24" s="105"/>
-      <c r="G24" s="108"/>
-      <c r="H24" s="111"/>
+      <c r="F24" s="101"/>
+      <c r="G24" s="104"/>
+      <c r="H24" s="107"/>
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="73">
@@ -12287,21 +12370,21 @@
       <c r="D25" s="78" t="s">
         <v>119</v>
       </c>
-      <c r="E25" s="113"/>
-      <c r="F25" s="106"/>
-      <c r="G25" s="109"/>
-      <c r="H25" s="112"/>
+      <c r="E25" s="109"/>
+      <c r="F25" s="102"/>
+      <c r="G25" s="105"/>
+      <c r="H25" s="108"/>
     </row>
     <row r="27" spans="1:8" ht="53.65" customHeight="1">
-      <c r="B27" s="101" t="s">
+      <c r="B27" s="97" t="s">
         <v>148</v>
       </c>
-      <c r="C27" s="101"/>
-      <c r="D27" s="101"/>
-      <c r="E27" s="101"/>
-      <c r="F27" s="101"/>
-      <c r="G27" s="101"/>
-      <c r="H27" s="101"/>
+      <c r="C27" s="97"/>
+      <c r="D27" s="97"/>
+      <c r="E27" s="97"/>
+      <c r="F27" s="97"/>
+      <c r="G27" s="97"/>
+      <c r="H27" s="97"/>
     </row>
     <row r="28" spans="1:8">
       <c r="B28" s="44"/>
@@ -12353,19 +12436,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="26.25" customHeight="1">
-      <c r="A1" s="132" t="s">
+      <c r="A1" s="128" t="s">
         <v>155</v>
       </c>
-      <c r="B1" s="132"/>
-      <c r="C1" s="132"/>
-      <c r="D1" s="132"/>
-      <c r="E1" s="132"/>
-      <c r="F1" s="132"/>
-      <c r="G1" s="132"/>
-      <c r="H1" s="132"/>
-      <c r="I1" s="132"/>
-      <c r="J1" s="132"/>
-      <c r="K1" s="132"/>
+      <c r="B1" s="128"/>
+      <c r="C1" s="128"/>
+      <c r="D1" s="128"/>
+      <c r="E1" s="128"/>
+      <c r="F1" s="128"/>
+      <c r="G1" s="128"/>
+      <c r="H1" s="128"/>
+      <c r="I1" s="128"/>
+      <c r="J1" s="128"/>
+      <c r="K1" s="128"/>
     </row>
     <row r="2" spans="1:11" ht="39.75" customHeight="1">
       <c r="A2" s="45" t="s">
